--- a/wynagrodzenia.xlsx
+++ b/wynagrodzenia.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_9D5355BF84DCCE53631DEA188F31F45B3A7E0439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C36B1286-C04B-43C0-9EE1-35A6A8155976}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D32F58-56CB-4940-9FA6-034C9606FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Stanowisko</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Umiejętności</t>
   </si>
   <si>
+    <t>Brutto</t>
+  </si>
+  <si>
     <t>Database Developer</t>
   </si>
   <si>
@@ -88,6 +91,30 @@
   </si>
   <si>
     <t>Zarządzanie SCRUM, MS Project, Agile</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>Źródła:</t>
+  </si>
+  <si>
+    <t>Bulldogjob — raport/sumy płac IT (frontend/tester dane).</t>
+  </si>
+  <si>
+    <t>NoFluffJobs — aktualne oferty z widełkami (Front-end, Seniory w Warszawie).</t>
+  </si>
+  <si>
+    <t>ITselecta / local salary overviews (2025).</t>
+  </si>
+  <si>
+    <t>Hays / Antal salary guides (rynek IT, Scrum Master).</t>
+  </si>
+  <si>
+    <t>Informacje o składkach pracodawcy / ZUS / PwC: PwC / Dudkowiak / oficjalne ZUS — potwierdzające ~19–22% obciążeń pracodawcy w 2025.</t>
+  </si>
+  <si>
+    <t>Koszty pracodawcy</t>
   </si>
 </sst>
 </file>
@@ -120,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +178,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -404,21 +437,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -466,13 +484,37 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,22 +537,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -845,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q10"/>
+  <dimension ref="B3:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D17" sqref="D17:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,11 +909,14 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" customWidth="1"/>
-    <col min="11" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:19">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,208 +938,210 @@
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="24">
-        <v>45992</v>
-      </c>
-      <c r="L3" s="25">
-        <v>46023</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="K3" s="23">
+        <v>45901</v>
+      </c>
+      <c r="L3" s="24">
+        <v>45931</v>
+      </c>
+      <c r="M3" s="36">
+        <v>45962</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>7</v>
+      </c>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="2:17" ht="29.25">
+    <row r="4" spans="2:19" ht="29.25">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5">
-        <v>9962.35</v>
+        <v>9940</v>
       </c>
       <c r="D4" s="5">
         <v>14000</v>
       </c>
       <c r="E4" s="5">
-        <v>16867.2</v>
+        <v>17080</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6">
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="26">
-        <v>8433.6</v>
-      </c>
-      <c r="L4" s="29">
-        <v>8433.6</v>
-      </c>
-      <c r="M4" s="31">
-        <f>SUM(K4:L4)</f>
-        <v>16867.2</v>
-      </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="2:17">
+        <v>10</v>
+      </c>
+      <c r="K4" s="25">
+        <v>1272.73</v>
+      </c>
+      <c r="L4" s="28">
+        <v>14000</v>
+      </c>
+      <c r="M4" s="28">
+        <v>10500</v>
+      </c>
+      <c r="N4" s="37">
+        <f>SUM(K4:M4)</f>
+        <v>25772.73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
-        <v>6991.87</v>
+        <v>8520</v>
       </c>
       <c r="D5" s="5">
         <v>12000</v>
       </c>
       <c r="E5" s="5">
-        <v>14457.6</v>
+        <v>14640</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="9">
-        <v>7228.8</v>
+        <v>1090.9100000000001</v>
       </c>
       <c r="L5" s="19">
-        <v>7228.8</v>
-      </c>
-      <c r="M5" s="32">
-        <f t="shared" ref="M5:M9" si="0">SUM(K5:L5)</f>
-        <v>14457.6</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="2:17">
+        <v>12000</v>
+      </c>
+      <c r="M5" s="19">
+        <v>9000</v>
+      </c>
+      <c r="N5" s="30">
+        <f>SUM(K5:M5)</f>
+        <v>22090.91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>7568.11</v>
+        <v>9230</v>
       </c>
       <c r="D6" s="5">
         <v>13000</v>
       </c>
       <c r="E6" s="5">
-        <v>15662.4</v>
+        <v>15860</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="9">
-        <v>7831.2</v>
+        <v>1181.82</v>
       </c>
       <c r="L6" s="19">
-        <v>7831.2</v>
-      </c>
-      <c r="M6" s="32">
-        <f t="shared" si="0"/>
-        <v>15662.4</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="2:17">
+        <v>13000</v>
+      </c>
+      <c r="M6" s="19">
+        <v>9750</v>
+      </c>
+      <c r="N6" s="30">
+        <f>SUM(K6:M6)</f>
+        <v>23931.82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>5729.91</v>
+        <v>5680</v>
       </c>
       <c r="D7" s="5">
         <v>8000</v>
       </c>
       <c r="E7" s="5">
-        <v>9638.4</v>
+        <v>9760</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="9">
-        <v>4819.2</v>
+        <v>727.27</v>
       </c>
       <c r="L7" s="19">
-        <v>4819.2</v>
-      </c>
-      <c r="M7" s="32">
-        <f t="shared" si="0"/>
-        <v>9638.4</v>
-      </c>
-      <c r="N7" s="21"/>
+        <v>8000</v>
+      </c>
+      <c r="M7" s="19">
+        <v>6000</v>
+      </c>
+      <c r="N7" s="30">
+        <f>SUM(K7:M7)</f>
+        <v>14727.27</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="2:17">
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11">
-        <v>6991.87</v>
+        <v>8520</v>
       </c>
       <c r="D8" s="11">
         <v>12000</v>
       </c>
       <c r="E8" s="11">
-        <v>14457.6</v>
+        <v>14640</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="10">
         <v>3</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="28">
-        <v>7228.8</v>
-      </c>
-      <c r="L8" s="30">
-        <v>7228.8</v>
-      </c>
-      <c r="M8" s="34">
-        <f t="shared" si="0"/>
-        <v>14457.6</v>
-      </c>
-      <c r="N8" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1090.9100000000001</v>
+      </c>
+      <c r="L8" s="29">
+        <v>12000</v>
+      </c>
+      <c r="M8" s="29">
+        <v>9000</v>
+      </c>
+      <c r="N8" s="32">
+        <f>SUM(K8:M8)</f>
+        <v>22090.91</v>
+      </c>
       <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:17">
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="16"/>
       <c r="C9" s="14">
         <f>SUM(C4:C8)</f>
-        <v>37244.11</v>
+        <v>41890</v>
       </c>
       <c r="D9" s="14">
         <f>SUM(D4:D8)</f>
@@ -1095,36 +1149,271 @@
       </c>
       <c r="E9" s="14">
         <f>SUM(E4:E8)</f>
-        <v>71083.200000000012</v>
+        <v>71980</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="K9" s="13">
         <f>SUM(K4:K8)</f>
-        <v>35541.600000000006</v>
-      </c>
-      <c r="L9" s="33">
-        <f t="shared" ref="L9:Q9" si="1">SUM(L4:L8)</f>
-        <v>35541.600000000006</v>
-      </c>
-      <c r="M9" s="35">
+        <v>5363.6399999999994</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" ref="L9:M9" si="0">SUM(L4:L8)</f>
+        <v>59000</v>
+      </c>
+      <c r="M9" s="31">
         <f t="shared" si="0"/>
-        <v>71083.200000000012</v>
-      </c>
-      <c r="N9" s="21"/>
+        <v>44250</v>
+      </c>
+      <c r="N9" s="33">
+        <f>SUM(K9:M9)</f>
+        <v>108613.64</v>
+      </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="2:17">
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+    <row r="10" spans="2:19">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="K11" s="23">
+        <v>45901</v>
+      </c>
+      <c r="L11" s="24">
+        <v>45931</v>
+      </c>
+      <c r="M11" s="36">
+        <v>45962</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="K12" s="25">
+        <v>903.64</v>
+      </c>
+      <c r="L12" s="28">
+        <v>9940</v>
+      </c>
+      <c r="M12" s="28">
+        <v>7455</v>
+      </c>
+      <c r="N12" s="37">
+        <f>SUM(K12:M12)</f>
+        <v>18298.64</v>
+      </c>
+      <c r="S12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="K13" s="9">
+        <v>774.05</v>
+      </c>
+      <c r="L13" s="19">
+        <v>8520</v>
+      </c>
+      <c r="M13" s="19">
+        <v>6390</v>
+      </c>
+      <c r="N13" s="30">
+        <f>SUM(K13:M13)</f>
+        <v>15684.05</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="17.25" customHeight="1">
+      <c r="K14" s="9">
+        <v>838.09</v>
+      </c>
+      <c r="L14" s="19">
+        <v>9230</v>
+      </c>
+      <c r="M14" s="19">
+        <v>6922.5</v>
+      </c>
+      <c r="N14" s="30">
+        <f>SUM(K14:M14)</f>
+        <v>16990.59</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="K15" s="9">
+        <v>516.36</v>
+      </c>
+      <c r="L15" s="19">
+        <v>5680</v>
+      </c>
+      <c r="M15" s="19">
+        <v>4260</v>
+      </c>
+      <c r="N15" s="30">
+        <f>SUM(K15:M15)</f>
+        <v>10456.36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="K16" s="27">
+        <v>774.05</v>
+      </c>
+      <c r="L16" s="29">
+        <v>8520</v>
+      </c>
+      <c r="M16" s="29">
+        <v>6390</v>
+      </c>
+      <c r="N16" s="32">
+        <f>SUM(K16:M16)</f>
+        <v>15684.05</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="11:19" ht="48" customHeight="1">
+      <c r="K17" s="13">
+        <f>SUM(K12:K16)</f>
+        <v>3806.1900000000005</v>
+      </c>
+      <c r="L17" s="31">
+        <f t="shared" ref="L17:M17" si="1">SUM(L12:L16)</f>
+        <v>41890</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" si="1"/>
+        <v>31417.5</v>
+      </c>
+      <c r="N17" s="33">
+        <f>SUM(K17:M17)</f>
+        <v>77113.69</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="11:19" ht="29.25">
+      <c r="K19" s="23">
+        <v>45901</v>
+      </c>
+      <c r="L19" s="24">
+        <v>45931</v>
+      </c>
+      <c r="M19" s="36">
+        <v>45962</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="11:19">
+      <c r="K20" s="25">
+        <v>1553.64</v>
+      </c>
+      <c r="L20" s="28">
+        <v>17080</v>
+      </c>
+      <c r="M20" s="28">
+        <v>12810</v>
+      </c>
+      <c r="N20" s="37">
+        <f>SUM(K20:M20)</f>
+        <v>31443.64</v>
+      </c>
+    </row>
+    <row r="21" spans="11:19">
+      <c r="K21" s="9">
+        <v>1333.64</v>
+      </c>
+      <c r="L21" s="19">
+        <v>14640</v>
+      </c>
+      <c r="M21" s="19">
+        <v>11016</v>
+      </c>
+      <c r="N21" s="30">
+        <f>SUM(K21:M21)</f>
+        <v>26989.64</v>
+      </c>
+    </row>
+    <row r="22" spans="11:19">
+      <c r="K22" s="9">
+        <v>1441.82</v>
+      </c>
+      <c r="L22" s="19">
+        <v>15860</v>
+      </c>
+      <c r="M22" s="19">
+        <v>11895</v>
+      </c>
+      <c r="N22" s="30">
+        <f>SUM(K22:M22)</f>
+        <v>29196.82</v>
+      </c>
+    </row>
+    <row r="23" spans="11:19">
+      <c r="K23" s="9">
+        <v>887.27</v>
+      </c>
+      <c r="L23" s="19">
+        <v>9760</v>
+      </c>
+      <c r="M23" s="19">
+        <v>7320</v>
+      </c>
+      <c r="N23" s="30">
+        <f>SUM(K23:M23)</f>
+        <v>17967.27</v>
+      </c>
+    </row>
+    <row r="24" spans="11:19">
+      <c r="K24" s="27">
+        <v>1333.64</v>
+      </c>
+      <c r="L24" s="29">
+        <v>14640</v>
+      </c>
+      <c r="M24" s="29">
+        <v>11016</v>
+      </c>
+      <c r="N24" s="32">
+        <f>SUM(K24:M24)</f>
+        <v>26989.64</v>
+      </c>
+    </row>
+    <row r="25" spans="11:19">
+      <c r="K25" s="13">
+        <f>SUM(K20:K24)</f>
+        <v>6550.0100000000011</v>
+      </c>
+      <c r="L25" s="31">
+        <f t="shared" ref="L25:M25" si="2">SUM(L20:L24)</f>
+        <v>71980</v>
+      </c>
+      <c r="M25" s="31">
+        <f t="shared" si="2"/>
+        <v>54057</v>
+      </c>
+      <c r="N25" s="33">
+        <f>SUM(K25:M25)</f>
+        <v>132587.01</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
